--- a/PA3/data.xlsx
+++ b/PA3/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Averaged!$A$1:$D$33</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Raw!$A$1:$D$163</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Raw!$A$1:$D$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Raw!$A$1:$D$163</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Averaged!$A$1:$D$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="7">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -54,14 +56,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -79,49 +83,93 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -135,6 +183,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -242,24 +291,56 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -268,11 +349,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,7 +449,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -400,7 +485,7 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Sequential Bucket Sort Time vs Integers Sorted</a:t>
+              <a:t>Sequential Bucket Sort Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -560,125 +645,116 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1.06E-005</c:v>
+                  <c:v>1.08E-005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1E-005</c:v>
+                  <c:v>3.4E-005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0001168</c:v>
+                  <c:v>8.86E-005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000474</c:v>
+                  <c:v>0.0004336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0020016</c:v>
+                  <c:v>0.001249</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0032006</c:v>
+                  <c:v>0.00212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.014023</c:v>
+                  <c:v>0.0076516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.039554</c:v>
+                  <c:v>0.0179848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0744038</c:v>
+                  <c:v>0.0358538</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.379205</c:v>
+                  <c:v>0.1811684</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.571369</c:v>
+                  <c:v>0.2708382</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.11791</c:v>
+                  <c:v>0.5331562</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5313</c:v>
+                  <c:v>0.7538078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.026566</c:v>
+                  <c:v>1.028178</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.283876</c:v>
+                  <c:v>1.073144</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.578568</c:v>
+                  <c:v>1.293742</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.047642</c:v>
+                  <c:v>1.539684</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.852568</c:v>
+                  <c:v>1.925474</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.23498</c:v>
+                  <c:v>2.18599</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.658368</c:v>
+                  <c:v>2.393244</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.207944</c:v>
+                  <c:v>2.641336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.679766</c:v>
+                  <c:v>2.90736</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1585</c:v>
+                  <c:v>3.107444</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.676182</c:v>
+                  <c:v>3.361382</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.488588</c:v>
+                  <c:v>3.974644</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.08504</c:v>
+                  <c:v>4.224522</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.520502</c:v>
+                  <c:v>4.443696</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.982212</c:v>
+                  <c:v>4.689448</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.59302</c:v>
+                  <c:v>5.000154</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.021496</c:v>
+                  <c:v>5.197692</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.62822</c:v>
+                  <c:v>5.322998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.8297</c:v>
+                  <c:v>5.499028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="69889527"/>
-        <c:axId val="489998"/>
+        <c:axId val="6839255"/>
+        <c:axId val="99413562"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69889527"/>
+        <c:axId val="6839255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -710,7 +786,7 @@
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Number of Integers</a:t>
+                  <a:t>Integers</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -746,12 +822,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489998"/>
+        <c:crossAx val="99413562"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489998"/>
+        <c:axId val="99413562"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,17 +878,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0351383305746039"/>
-              <c:y val="0.50234268002595"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -841,7 +909,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69889527"/>
+        <c:crossAx val="6839255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -886,16 +954,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>720360</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>451440</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -903,8 +971,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5003280" y="496800"/>
-        <a:ext cx="7611840" cy="4993920"/>
+        <a:off x="5229360" y="758520"/>
+        <a:ext cx="8445240" cy="4894920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -922,19 +990,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="1" sqref="B2:C34 L25"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
@@ -979,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1E-005</v>
+        <v>1.1E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,7 +1103,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4E-005</v>
+        <v>1.3E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,7 +1117,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>4.1E-005</v>
+        <v>3.6E-005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,7 +1131,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>4.1E-005</v>
+        <v>3.7E-005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,7 +1145,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>4.1E-005</v>
+        <v>4.2E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,7 +1173,7 @@
         <v>250</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.000114</v>
+        <v>3.6E-005</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,7 +1187,7 @@
         <v>250</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.000115</v>
+        <v>6.3E-005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,7 +1201,7 @@
         <v>250</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.000117</v>
+        <v>0.000114</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,7 +1215,7 @@
         <v>250</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.000118</v>
+        <v>0.000114</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,7 +1229,7 @@
         <v>250</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.00012</v>
+        <v>0.000116</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,7 +1243,7 @@
         <v>1250</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.00028</v>
+        <v>0.000151</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,7 +1257,7 @@
         <v>1250</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.000506</v>
+        <v>0.000496</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,7 +1271,7 @@
         <v>1250</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.000512</v>
+        <v>0.000499</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,7 +1285,7 @@
         <v>1250</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.000513</v>
+        <v>0.000504</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,7 +1299,7 @@
         <v>1250</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.000559</v>
+        <v>0.000518</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,7 +1313,7 @@
         <v>6250</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.001181</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,7 +1327,7 @@
         <v>6250</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.002179</v>
+        <v>0.00097</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,7 +1341,7 @@
         <v>6250</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.002202</v>
+        <v>0.001293</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,7 +1355,7 @@
         <v>6250</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.002214</v>
+        <v>0.001704</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,7 +1369,7 @@
         <v>6250</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.002232</v>
+        <v>0.001768</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,7 +1383,7 @@
         <v>31250</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.002686</v>
+        <v>0.001797</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,7 +1397,7 @@
         <v>31250</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.002702</v>
+        <v>0.001806</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,7 +1411,7 @@
         <v>31250</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.002713</v>
+        <v>0.002202</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,7 +1425,7 @@
         <v>31250</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.003283</v>
+        <v>0.002393</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,7 +1439,7 @@
         <v>31250</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.004619</v>
+        <v>0.002402</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,7 +1453,7 @@
         <v>156250</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.013947</v>
+        <v>0.007623</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,7 +1467,7 @@
         <v>156250</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.013953</v>
+        <v>0.007641</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,7 +1481,7 @@
         <v>156250</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.014025</v>
+        <v>0.007642</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,7 +1495,7 @@
         <v>156250</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.014095</v>
+        <v>0.007672</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,7 +1509,7 @@
         <v>156250</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.014095</v>
+        <v>0.00768</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1455,7 +1523,7 @@
         <v>400000</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.038472</v>
+        <v>0.017873</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,7 +1537,7 @@
         <v>400000</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.038485</v>
+        <v>0.017913</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,7 +1551,7 @@
         <v>400000</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.038624</v>
+        <v>0.018001</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,7 +1565,7 @@
         <v>400000</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.038693</v>
+        <v>0.018027</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,7 +1579,7 @@
         <v>400000</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.043496</v>
+        <v>0.01811</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,7 +1593,7 @@
         <v>781250</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.073817</v>
+        <v>0.035706</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,7 +1607,7 @@
         <v>781250</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.074311</v>
+        <v>0.035742</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,7 +1621,7 @@
         <v>781250</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.074498</v>
+        <v>0.035808</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,7 +1635,7 @@
         <v>781250</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.074678</v>
+        <v>0.03584</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,7 +1649,7 @@
         <v>781250</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.074715</v>
+        <v>0.036173</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,7 +1663,7 @@
         <v>3906250</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.378477</v>
+        <v>0.181036</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,7 +1677,7 @@
         <v>3906250</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.378796</v>
+        <v>0.181088</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,7 +1691,7 @@
         <v>3906250</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.378796</v>
+        <v>0.181089</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,7 +1705,7 @@
         <v>3906250</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0.379753</v>
+        <v>0.181241</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,7 +1719,7 @@
         <v>3906250</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0.380203</v>
+        <v>0.181388</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,7 +1733,7 @@
         <v>5380000</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0.540218</v>
+        <v>0.267754</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,7 +1747,7 @@
         <v>5380000</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0.541723</v>
+        <v>0.267857</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,7 +1761,7 @@
         <v>5380000</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0.565787</v>
+        <v>0.268205</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,7 +1775,7 @@
         <v>5380000</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0.60367</v>
+        <v>0.26876</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,7 +1789,7 @@
         <v>5380000</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.605447</v>
+        <v>0.281615</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,7 +1803,7 @@
         <v>10360000</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>1.05562</v>
+        <v>0.527307</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,7 +1817,7 @@
         <v>10360000</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>1.05699</v>
+        <v>0.527818</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,7 +1831,7 @@
         <v>10360000</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>1.05774</v>
+        <v>0.529878</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,7 +1845,7 @@
         <v>10360000</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1.17674</v>
+        <v>0.529961</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,7 +1859,7 @@
         <v>10360000</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1.18</v>
+        <v>0.550817</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,10 +1870,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>10360000</v>
+        <v>15340000</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>1.18037</v>
+        <v>0.74729</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,7 +1887,7 @@
         <v>15340000</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>1.5276</v>
+        <v>0.747613</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,7 +1901,7 @@
         <v>15340000</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>1.52907</v>
+        <v>0.74775</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,21 +1915,21 @@
         <v>15340000</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>1.53144</v>
+        <v>0.748071</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="n">
+      <c r="A66" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
         <v>15340000</v>
       </c>
-      <c r="D66" s="1" t="n">
-        <v>1.53211</v>
+      <c r="D66" s="0" t="n">
+        <v>0.778315</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>15340000</v>
+        <v>19531250</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>1.53628</v>
+        <v>1.0259</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,7 +1957,7 @@
         <v>19531250</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>2.02319</v>
+        <v>1.02612</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,7 +1971,7 @@
         <v>19531250</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>2.02398</v>
+        <v>1.02642</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,7 +1985,7 @@
         <v>19531250</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>2.02754</v>
+        <v>1.02657</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,7 +1999,7 @@
         <v>19531250</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>2.02811</v>
+        <v>1.03588</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,10 +2010,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>19531250</v>
+        <v>20320000</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>2.03001</v>
+        <v>1.06072</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,7 +2027,7 @@
         <v>20320000</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>2.15608</v>
+        <v>1.06209</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,7 +2041,7 @@
         <v>20320000</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>2.15967</v>
+        <v>1.0629</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,7 +2055,7 @@
         <v>20320000</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>2.28712</v>
+        <v>1.07236</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2001,7 +2069,7 @@
         <v>20320000</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>2.40655</v>
+        <v>1.10765</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>20320000</v>
+        <v>25300000</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>2.40996</v>
+        <v>1.29045</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,7 +2097,7 @@
         <v>25300000</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>2.5764</v>
+        <v>1.29098</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2111,7 @@
         <v>25300000</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>2.5764</v>
+        <v>1.29151</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,7 +2125,7 @@
         <v>25300000</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>2.57812</v>
+        <v>1.29732</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,7 +2139,7 @@
         <v>25300000</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>2.5797</v>
+        <v>1.29845</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,10 +2150,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>25300000</v>
+        <v>30280000</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>2.58222</v>
+        <v>1.51943</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,7 +2167,7 @@
         <v>30280000</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>3.04225</v>
+        <v>1.52001</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,7 +2181,7 @@
         <v>30280000</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>3.04794</v>
+        <v>1.52529</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,7 +2195,7 @@
         <v>30280000</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>3.04844</v>
+        <v>1.54981</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,7 +2209,7 @@
         <v>30280000</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>3.04901</v>
+        <v>1.58388</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,10 +2220,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>30280000</v>
+        <v>35260000</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>3.05057</v>
+        <v>1.92419</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,7 +2237,7 @@
         <v>35260000</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>3.69452</v>
+        <v>1.92493</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,7 +2251,7 @@
         <v>35260000</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>3.6976</v>
+        <v>1.92548</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,7 +2265,7 @@
         <v>35260000</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>3.69909</v>
+        <v>1.92627</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,7 +2279,7 @@
         <v>35260000</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>4.05761</v>
+        <v>1.9265</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2222,10 +2290,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>35260000</v>
+        <v>40240000</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>4.11402</v>
+        <v>2.15808</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,7 +2307,7 @@
         <v>40240000</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>4.23028</v>
+        <v>2.15844</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,7 +2321,7 @@
         <v>40240000</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>4.23264</v>
+        <v>2.16097</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,7 +2335,7 @@
         <v>40240000</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>4.23659</v>
+        <v>2.19997</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,7 +2349,7 @@
         <v>40240000</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>4.2374</v>
+        <v>2.25249</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,10 +2360,10 @@
         <v>1</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>40240000</v>
+        <v>45220000</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>4.23799</v>
+        <v>2.39225</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,7 +2377,7 @@
         <v>45220000</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>4.65387</v>
+        <v>2.39231</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,7 +2391,7 @@
         <v>45220000</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>4.65795</v>
+        <v>2.39298</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,7 +2405,7 @@
         <v>45220000</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>4.65907</v>
+        <v>2.39404</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,7 +2419,7 @@
         <v>45220000</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>4.66024</v>
+        <v>2.39464</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,10 +2430,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>45220000</v>
+        <v>50200000</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>4.66071</v>
+        <v>2.63435</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,7 +2447,7 @@
         <v>50200000</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>5.15422</v>
+        <v>2.63756</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,7 +2461,7 @@
         <v>50200000</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>5.15926</v>
+        <v>2.64245</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,7 +2475,7 @@
         <v>50200000</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>5.1634</v>
+        <v>2.64423</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +2489,7 @@
         <v>50200000</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>5.16594</v>
+        <v>2.64809</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>50200000</v>
+        <v>55180000</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>5.3969</v>
+        <v>2.8737</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,7 +2517,7 @@
         <v>55180000</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>5.61434</v>
+        <v>2.87775</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,7 +2531,7 @@
         <v>55180000</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>5.61769</v>
+        <v>2.88404</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,7 +2545,7 @@
         <v>55180000</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>5.63522</v>
+        <v>2.91757</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,7 +2559,7 @@
         <v>55180000</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>5.64352</v>
+        <v>2.98374</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,10 +2570,10 @@
         <v>1</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>55180000</v>
+        <v>60160000</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>5.88806</v>
+        <v>3.1042</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2519,7 +2587,7 @@
         <v>60160000</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>6.91936</v>
+        <v>3.10583</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,7 +2601,7 @@
         <v>60160000</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>6.92767</v>
+        <v>3.10727</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,7 +2615,7 @@
         <v>60160000</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>6.92896</v>
+        <v>3.10935</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,7 +2629,7 @@
         <v>60160000</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>7.25565</v>
+        <v>3.11057</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,10 +2640,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>60160000</v>
+        <v>65140000</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>7.76086</v>
+        <v>3.35512</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,7 +2657,7 @@
         <v>65140000</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>6.59819</v>
+        <v>3.35622</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,7 +2671,7 @@
         <v>65140000</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>6.61413</v>
+        <v>3.35712</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,7 +2685,7 @@
         <v>65140000</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>6.61446</v>
+        <v>3.36371</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,7 +2699,7 @@
         <v>65140000</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>6.63807</v>
+        <v>3.37474</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2642,10 +2710,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>65140000</v>
+        <v>70120000</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>6.91606</v>
+        <v>3.9345</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2659,7 +2727,7 @@
         <v>70120000</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>7.41256</v>
+        <v>3.93547</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,7 +2741,7 @@
         <v>70120000</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>7.4158</v>
+        <v>3.93731</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,7 +2755,7 @@
         <v>70120000</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>7.42569</v>
+        <v>3.95097</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,7 +2769,7 @@
         <v>70120000</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>7.44049</v>
+        <v>4.11497</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,10 +2780,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>70120000</v>
+        <v>75100000</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>7.7484</v>
+        <v>4.18762</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,7 +2797,7 @@
         <v>75100000</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>7.88721</v>
+        <v>4.18938</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,7 +2811,7 @@
         <v>75100000</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>7.91096</v>
+        <v>4.18998</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,7 +2825,7 @@
         <v>75100000</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>7.91743</v>
+        <v>4.19283</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,7 +2839,7 @@
         <v>75100000</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>7.9342</v>
+        <v>4.3628</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>75100000</v>
+        <v>80080000</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>8.7754</v>
+        <v>4.43113</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,7 +2867,7 @@
         <v>80080000</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>8.51103</v>
+        <v>4.43193</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2813,7 +2881,7 @@
         <v>80080000</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>8.51554</v>
+        <v>4.4352</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,7 +2895,7 @@
         <v>80080000</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>8.52158</v>
+        <v>4.45616</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,7 +2909,7 @@
         <v>80080000</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>8.52247</v>
+        <v>4.46406</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>80080000</v>
+        <v>85060000</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>8.53189</v>
+        <v>4.68706</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,7 +2937,7 @@
         <v>85060000</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>8.89458</v>
+        <v>4.68727</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,7 +2951,7 @@
         <v>85060000</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>8.90768</v>
+        <v>4.68772</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,7 +2965,7 @@
         <v>85060000</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>8.90892</v>
+        <v>4.69058</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2911,7 +2979,7 @@
         <v>85060000</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>8.9106</v>
+        <v>4.69461</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2922,10 +2990,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>85060000</v>
+        <v>90040000</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>9.28928</v>
+        <v>4.94248</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,7 +3007,7 @@
         <v>90040000</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>9.40654</v>
+        <v>4.96066</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,7 +3021,7 @@
         <v>90040000</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>9.41582</v>
+        <v>4.96137</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,7 +3035,7 @@
         <v>90040000</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>9.43164</v>
+        <v>4.99359</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,7 +3049,7 @@
         <v>90040000</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>9.8501</v>
+        <v>5.14267</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,10 +3060,10 @@
         <v>1</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>90040000</v>
+        <v>95020000</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>9.861</v>
+        <v>5.18851</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,7 +3077,7 @@
         <v>95020000</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>9.92038</v>
+        <v>5.18853</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3023,7 +3091,7 @@
         <v>95020000</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>9.935</v>
+        <v>5.19012</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,7 +3105,7 @@
         <v>95020000</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>9.93678</v>
+        <v>5.20912</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,7 +3119,7 @@
         <v>95020000</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>9.94312</v>
+        <v>5.21218</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,10 +3130,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>95020000</v>
+        <v>97656250</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>10.3722</v>
+        <v>5.3207</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,7 +3147,7 @@
         <v>97656250</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>10.2221</v>
+        <v>5.32127</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,7 +3161,7 @@
         <v>97656250</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>10.236</v>
+        <v>5.32215</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3107,7 +3175,7 @@
         <v>97656250</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>10.2393</v>
+        <v>5.32359</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,7 +3189,7 @@
         <v>97656250</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>11.1241</v>
+        <v>5.32728</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,10 +3200,10 @@
         <v>1</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>97656250</v>
+        <v>100000000</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>11.3196</v>
+        <v>5.443</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,7 +3217,7 @@
         <v>100000000</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>10.5938</v>
+        <v>5.44592</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,7 +3231,7 @@
         <v>100000000</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>10.5991</v>
+        <v>5.45958</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,7 +3245,7 @@
         <v>100000000</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>10.6096</v>
+        <v>5.46016</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,25 +3259,11 @@
         <v>100000000</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>10.8461</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C162" s="0" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="D162" s="0" t="n">
-        <v>11.4999</v>
+        <v>5.68648</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D163"/>
+  <autoFilter ref="A1:D161"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3228,14 +3282,14 @@
   </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="1" sqref="B2:C34 E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q12" activeCellId="0" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -3263,8 +3317,8 @@
       <c r="C2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1.06E-005</v>
+      <c r="D2" s="2" t="n">
+        <v>1.08E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,8 +3331,8 @@
       <c r="C3" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>4.1E-005</v>
+      <c r="D3" s="2" t="n">
+        <v>3.4E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,8 +3345,8 @@
       <c r="C4" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0001168</v>
+      <c r="D4" s="2" t="n">
+        <v>8.86E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,7 +3360,7 @@
         <v>1250</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.000474</v>
+        <v>0.0004336</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,7 +3374,7 @@
         <v>6250</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.0020016</v>
+        <v>0.001249</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,7 +3388,7 @@
         <v>31250</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.0032006</v>
+        <v>0.00212</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,7 +3402,7 @@
         <v>156250</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.014023</v>
+        <v>0.0076516</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3362,7 +3416,7 @@
         <v>400000</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.039554</v>
+        <v>0.0179848</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,7 +3430,7 @@
         <v>781250</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.0744038</v>
+        <v>0.0358538</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,7 +3444,7 @@
         <v>3906250</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.379205</v>
+        <v>0.1811684</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3404,7 +3458,7 @@
         <v>5380000</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.571369</v>
+        <v>0.2708382</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,7 +3472,7 @@
         <v>10360000</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1.11791</v>
+        <v>0.5331562</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,7 +3486,7 @@
         <v>15340000</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1.5313</v>
+        <v>0.7538078</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,7 +3500,7 @@
         <v>19531250</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2.026566</v>
+        <v>1.028178</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3460,7 +3514,7 @@
         <v>20320000</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>2.283876</v>
+        <v>1.073144</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,7 +3528,7 @@
         <v>25300000</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>2.578568</v>
+        <v>1.293742</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,7 +3542,7 @@
         <v>30280000</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>3.047642</v>
+        <v>1.539684</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,7 +3556,7 @@
         <v>35260000</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>3.852568</v>
+        <v>1.925474</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,7 +3570,7 @@
         <v>40240000</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>4.23498</v>
+        <v>2.18599</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,7 +3584,7 @@
         <v>45220000</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>4.658368</v>
+        <v>2.393244</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,7 +3598,7 @@
         <v>50200000</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>5.207944</v>
+        <v>2.641336</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,7 +3612,7 @@
         <v>55180000</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>5.679766</v>
+        <v>2.90736</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,7 +3626,7 @@
         <v>60160000</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>7.1585</v>
+        <v>3.107444</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,7 +3640,7 @@
         <v>65140000</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>6.676182</v>
+        <v>3.361382</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,7 +3654,7 @@
         <v>70120000</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>7.488588</v>
+        <v>3.974644</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,7 +3668,7 @@
         <v>75100000</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>8.08504</v>
+        <v>4.224522</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3628,7 +3682,7 @@
         <v>80080000</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>8.520502</v>
+        <v>4.443696</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3642,7 +3696,7 @@
         <v>85060000</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>8.982212</v>
+        <v>4.689448</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,7 +3710,7 @@
         <v>90040000</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>9.59302</v>
+        <v>5.000154</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,7 +3724,7 @@
         <v>95020000</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>10.021496</v>
+        <v>5.197692</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3684,7 +3738,7 @@
         <v>97656250</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>10.62822</v>
+        <v>5.322998</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,14 +3752,14 @@
         <v>100000000</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>10.8297</v>
+        <v>5.499028</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D33"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3722,7 +3776,7 @@
   <dimension ref="B1:AD30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="1" sqref="B2:C34 F19"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3730,278 +3784,278 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="5" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="5" style="0" width="5.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="31" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>383</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>886</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>777</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>915</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>211</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>793</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>335</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>335</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>362</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>386</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>368</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>492</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>383</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>649</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>386</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>421</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>421</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <v>362</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>426</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>429</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3" t="n">
         <v>690</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <v>492</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="3" t="n">
         <v>540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3" t="n">
         <v>763</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="3" t="n">
         <v>567</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3" t="n">
         <v>926</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="3" t="n">
         <v>540</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="3" t="n">
         <v>690</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3" t="n">
         <v>426</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>736</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="3" t="n">
         <v>172</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="3" t="n">
         <v>763</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="3" t="n">
         <v>736</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="3" t="n">
         <v>777</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="3" t="n">
         <v>211</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="3" t="n">
         <v>782</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="3" t="n">
         <v>368</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="3" t="n">
         <v>793</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3" t="n">
         <v>567</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="3" t="n">
         <v>886</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="3" t="n">
         <v>429</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="3" t="n">
         <v>915</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="3" t="n">
         <v>782</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="3" t="n">
         <v>926</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4016,8 +4070,8 @@
   </sheetPr>
   <dimension ref="B2:C34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4028,273 +4082,273 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>1.06E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>4.1E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>0.0001168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>1250</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>0.000474</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>6250</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>0.0020016</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>31250</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>0.0032006</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>156250</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>0.014023</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>400000</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>0.039554</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>781250</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>0.0744038</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <v>3906250</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>0.379205</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>5380000</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>0.571369</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3" t="n">
         <v>10360000</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <v>1.11791</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3" t="n">
         <v>15340000</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="3" t="n">
         <v>1.5313</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3" t="n">
         <v>19531250</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="3" t="n">
         <v>2.026566</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3" t="n">
         <v>20320000</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>2.283876</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="3" t="n">
         <v>25300000</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="3" t="n">
         <v>2.578568</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3" t="n">
         <v>30280000</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>3.047642</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="3" t="n">
         <v>35260000</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="3" t="n">
         <v>3.852568</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="3" t="n">
         <v>40240000</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="3" t="n">
         <v>4.23498</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="3" t="n">
         <v>45220000</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="3" t="n">
         <v>4.658368</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="3" t="n">
         <v>50200000</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="3" t="n">
         <v>5.207944</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3" t="n">
         <v>55180000</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="3" t="n">
         <v>5.679766</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="3" t="n">
         <v>60160000</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="3" t="n">
         <v>7.1585</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="3" t="n">
         <v>65140000</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="3" t="n">
         <v>6.676182</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="3" t="n">
         <v>70120000</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="3" t="n">
         <v>7.488588</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="3" t="n">
         <v>75100000</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="3" t="n">
         <v>8.08504</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="3" t="n">
         <v>80080000</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="3" t="n">
         <v>8.520502</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="3" t="n">
         <v>85060000</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="3" t="n">
         <v>8.982212</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="3" t="n">
         <v>90040000</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="3" t="n">
         <v>9.59302</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="3" t="n">
         <v>95020000</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="3" t="n">
         <v>10.021496</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="3" t="n">
         <v>97656250</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="3" t="n">
         <v>10.62822</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="3" t="n">
         <v>100000000</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="3" t="n">
         <v>10.8297</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/PA3/data.xlsx
+++ b/PA3/data.xlsx
@@ -340,7 +340,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -358,6 +358,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,7 +457,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -745,11 +753,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="6839255"/>
-        <c:axId val="99413562"/>
+        <c:axId val="44534575"/>
+        <c:axId val="47651859"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6839255"/>
+        <c:axId val="44534575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,12 +830,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99413562"/>
+        <c:crossAx val="47651859"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99413562"/>
+        <c:axId val="47651859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +917,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6839255"/>
+        <c:crossAx val="44534575"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3283,7 +3291,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q12" activeCellId="0" sqref="Q12"/>
+      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4090,259 +4098,259 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>1.06E-005</v>
+      <c r="C3" s="6" t="n">
+        <v>1.08E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>4.1E-005</v>
+      <c r="C4" s="6" t="n">
+        <v>3.4E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="5" t="n">
         <v>250</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>0.0001168</v>
+      <c r="C5" s="6" t="n">
+        <v>8.86E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="5" t="n">
         <v>1250</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>0.000474</v>
+      <c r="C6" s="5" t="n">
+        <v>0.0004336</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="5" t="n">
         <v>6250</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>0.0020016</v>
+      <c r="C7" s="5" t="n">
+        <v>0.001249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="5" t="n">
         <v>31250</v>
       </c>
-      <c r="C8" s="3" t="n">
-        <v>0.0032006</v>
+      <c r="C8" s="5" t="n">
+        <v>0.00212</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="5" t="n">
         <v>156250</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>0.014023</v>
+      <c r="C9" s="5" t="n">
+        <v>0.0076516</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="5" t="n">
         <v>400000</v>
       </c>
-      <c r="C10" s="3" t="n">
-        <v>0.039554</v>
+      <c r="C10" s="5" t="n">
+        <v>0.0179848</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="5" t="n">
         <v>781250</v>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>0.0744038</v>
+      <c r="C11" s="5" t="n">
+        <v>0.0358538</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="5" t="n">
         <v>3906250</v>
       </c>
-      <c r="C12" s="3" t="n">
-        <v>0.379205</v>
+      <c r="C12" s="5" t="n">
+        <v>0.1811684</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="5" t="n">
         <v>5380000</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>0.571369</v>
+      <c r="C13" s="5" t="n">
+        <v>0.2708382</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="5" t="n">
         <v>10360000</v>
       </c>
-      <c r="C14" s="3" t="n">
-        <v>1.11791</v>
+      <c r="C14" s="5" t="n">
+        <v>0.5331562</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="5" t="n">
         <v>15340000</v>
       </c>
-      <c r="C15" s="3" t="n">
-        <v>1.5313</v>
+      <c r="C15" s="5" t="n">
+        <v>0.7538078</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="5" t="n">
         <v>19531250</v>
       </c>
-      <c r="C16" s="3" t="n">
-        <v>2.026566</v>
+      <c r="C16" s="5" t="n">
+        <v>1.028178</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="5" t="n">
         <v>20320000</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>2.283876</v>
+      <c r="C17" s="5" t="n">
+        <v>1.073144</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="5" t="n">
         <v>25300000</v>
       </c>
-      <c r="C18" s="3" t="n">
-        <v>2.578568</v>
+      <c r="C18" s="5" t="n">
+        <v>1.293742</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="5" t="n">
         <v>30280000</v>
       </c>
-      <c r="C19" s="3" t="n">
-        <v>3.047642</v>
+      <c r="C19" s="5" t="n">
+        <v>1.539684</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="5" t="n">
         <v>35260000</v>
       </c>
-      <c r="C20" s="3" t="n">
-        <v>3.852568</v>
+      <c r="C20" s="5" t="n">
+        <v>1.925474</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="5" t="n">
         <v>40240000</v>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>4.23498</v>
+      <c r="C21" s="5" t="n">
+        <v>2.18599</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="5" t="n">
         <v>45220000</v>
       </c>
-      <c r="C22" s="3" t="n">
-        <v>4.658368</v>
+      <c r="C22" s="5" t="n">
+        <v>2.393244</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="5" t="n">
         <v>50200000</v>
       </c>
-      <c r="C23" s="3" t="n">
-        <v>5.207944</v>
+      <c r="C23" s="5" t="n">
+        <v>2.641336</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="5" t="n">
         <v>55180000</v>
       </c>
-      <c r="C24" s="3" t="n">
-        <v>5.679766</v>
+      <c r="C24" s="5" t="n">
+        <v>2.90736</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="5" t="n">
         <v>60160000</v>
       </c>
-      <c r="C25" s="3" t="n">
-        <v>7.1585</v>
+      <c r="C25" s="5" t="n">
+        <v>3.107444</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="5" t="n">
         <v>65140000</v>
       </c>
-      <c r="C26" s="3" t="n">
-        <v>6.676182</v>
+      <c r="C26" s="5" t="n">
+        <v>3.361382</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="5" t="n">
         <v>70120000</v>
       </c>
-      <c r="C27" s="3" t="n">
-        <v>7.488588</v>
+      <c r="C27" s="5" t="n">
+        <v>3.974644</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="5" t="n">
         <v>75100000</v>
       </c>
-      <c r="C28" s="3" t="n">
-        <v>8.08504</v>
+      <c r="C28" s="5" t="n">
+        <v>4.224522</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="5" t="n">
         <v>80080000</v>
       </c>
-      <c r="C29" s="3" t="n">
-        <v>8.520502</v>
+      <c r="C29" s="5" t="n">
+        <v>4.443696</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="5" t="n">
         <v>85060000</v>
       </c>
-      <c r="C30" s="3" t="n">
-        <v>8.982212</v>
+      <c r="C30" s="5" t="n">
+        <v>4.689448</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="5" t="n">
         <v>90040000</v>
       </c>
-      <c r="C31" s="3" t="n">
-        <v>9.59302</v>
+      <c r="C31" s="5" t="n">
+        <v>5.000154</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="5" t="n">
         <v>95020000</v>
       </c>
-      <c r="C32" s="3" t="n">
-        <v>10.021496</v>
+      <c r="C32" s="5" t="n">
+        <v>5.197692</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="5" t="n">
         <v>97656250</v>
       </c>
-      <c r="C33" s="3" t="n">
-        <v>10.62822</v>
+      <c r="C33" s="5" t="n">
+        <v>5.322998</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="5" t="n">
         <v>100000000</v>
       </c>
-      <c r="C34" s="3" t="n">
-        <v>10.8297</v>
+      <c r="C34" s="5" t="n">
+        <v>5.499028</v>
       </c>
     </row>
   </sheetData>
